--- a/Symphony/2021/Others/Document/Expence/MC Expance March 2021.xlsx
+++ b/Symphony/2021/Others/Document/Expence/MC Expance March 2021.xlsx
@@ -769,6 +769,111 @@
   </cellStyleXfs>
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -787,119 +892,14 @@
     <xf numFmtId="2" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1235,1250 +1235,1241 @@
   <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+      <selection activeCell="N44" sqref="N43:N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
     </row>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="5"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="17" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="4">
         <v>300</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20">
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
         <v>710</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6">
         <v>145</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="5">
         <v>480</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="5">
         <v>799</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="24">
+      <c r="M6" s="5"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="9">
         <f t="shared" ref="Q6:Q36" si="0">SUM(B6:P6)</f>
         <v>2434</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="4">
         <v>1500</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20">
+      <c r="C7" s="4"/>
+      <c r="D7" s="5">
         <v>300</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
         <v>370</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6">
         <v>20</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="5">
         <v>400</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="24">
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="9">
         <f t="shared" si="0"/>
         <v>2590</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="10">
         <v>500</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="26">
+      <c r="C8" s="4"/>
+      <c r="D8" s="11">
         <v>45</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11">
         <v>145</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="11">
         <v>180</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27">
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12">
         <v>195</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="11">
         <v>400</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="24">
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="9">
         <f>SUM(B8:P8)</f>
         <v>1465</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="10">
         <v>100</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26">
+      <c r="C9" s="4"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11">
         <v>580</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27">
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12">
         <v>40</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="11">
         <v>400</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="24">
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="9">
         <f t="shared" si="0"/>
         <v>1120</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="10">
         <v>1400</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26">
+      <c r="C10" s="4"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11">
         <v>40</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11">
         <v>420</v>
       </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26">
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11">
         <v>30</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="11">
         <v>480</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="24">
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="9">
         <f t="shared" si="0"/>
         <v>2370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="10">
         <v>1200</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26">
+      <c r="C11" s="4"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11">
         <v>460</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26">
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11">
         <v>20</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="11">
         <v>560</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="24">
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="9">
         <f t="shared" si="0"/>
         <v>2240</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="10">
         <v>500</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26">
+      <c r="C12" s="4"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11">
         <v>100</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26">
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11">
         <v>30</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="11">
         <v>560</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="24">
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="9">
         <f t="shared" si="0"/>
         <v>1190</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="10">
         <v>800</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="26">
+      <c r="C13" s="4"/>
+      <c r="D13" s="11">
         <v>100</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="11">
         <v>480</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11">
         <v>90</v>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26">
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11">
         <v>30</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="11">
         <v>480</v>
       </c>
-      <c r="L13" s="30"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="29">
+      <c r="L13" s="15"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="14">
         <v>50</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="Q13" s="9">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="10">
         <v>1500</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26">
+      <c r="C14" s="4"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11">
         <v>140</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26">
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11">
         <v>180</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="11">
         <v>480</v>
       </c>
-      <c r="L14" s="31"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="28">
+      <c r="L14" s="16"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="13">
         <v>70</v>
       </c>
-      <c r="O14" s="26"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="24">
+      <c r="O14" s="11"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="9">
         <f t="shared" si="0"/>
         <v>2370</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="10">
         <v>300</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26">
+      <c r="C15" s="4"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11">
         <v>170</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26">
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11">
         <v>30</v>
       </c>
-      <c r="K15" s="26">
+      <c r="K15" s="11">
         <v>400</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="26">
+      <c r="L15" s="5"/>
+      <c r="M15" s="11">
         <v>752</v>
       </c>
-      <c r="N15" s="28">
+      <c r="N15" s="13">
         <v>20</v>
       </c>
-      <c r="O15" s="26"/>
-      <c r="P15" s="29">
+      <c r="O15" s="11"/>
+      <c r="P15" s="14">
         <v>50</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="Q15" s="9">
         <f t="shared" si="0"/>
         <v>1722</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="10">
         <v>600</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26">
+      <c r="C16" s="4"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11">
         <v>180</v>
       </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26">
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11">
         <v>30</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="11">
         <v>480</v>
       </c>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="28">
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="13">
         <v>40</v>
       </c>
-      <c r="O16" s="26"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="24">
+      <c r="O16" s="11"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="9">
         <f t="shared" si="0"/>
         <v>1330</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="10">
         <v>1300</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="4">
         <v>400</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11">
         <v>200</v>
       </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26">
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11">
         <v>210</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="11">
         <v>480</v>
       </c>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="24">
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="9">
         <f t="shared" si="0"/>
         <v>2590</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="10">
         <v>500</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="4">
         <v>800</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11">
         <v>50</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26">
+      <c r="F18" s="11"/>
+      <c r="G18" s="11">
         <v>200</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26">
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11">
         <v>195</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="11">
         <v>540</v>
       </c>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="28">
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="13">
         <v>20</v>
       </c>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="24">
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="9">
         <f t="shared" si="0"/>
         <v>2305</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="10">
         <v>500</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26">
+      <c r="C19" s="4"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11">
         <v>200</v>
       </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26">
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11">
         <v>210</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="11">
         <v>480</v>
       </c>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="32">
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="17">
         <v>20</v>
       </c>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="24">
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="9">
         <f t="shared" si="0"/>
         <v>1410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26">
+      <c r="B20" s="10"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11">
         <v>30</v>
       </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="24">
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="10">
         <v>800</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26">
+      <c r="C21" s="4"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11">
         <v>240</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="11">
         <v>70</v>
       </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26">
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11">
         <v>190</v>
       </c>
-      <c r="K21" s="26">
+      <c r="K21" s="11">
         <v>400</v>
       </c>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="24">
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="9">
         <f t="shared" si="0"/>
         <v>1700</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="10">
         <v>1200</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="4">
         <v>400</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11">
         <v>80</v>
       </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26">
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11">
         <v>180</v>
       </c>
-      <c r="K22" s="26">
+      <c r="K22" s="11">
         <v>400</v>
       </c>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="28">
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="13">
         <v>40</v>
       </c>
-      <c r="O22" s="26"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="24">
+      <c r="O22" s="11"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="9">
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="10">
         <v>300</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="26">
+      <c r="C23" s="4"/>
+      <c r="D23" s="11">
         <v>85</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26">
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11">
         <v>200</v>
       </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26">
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11">
         <v>160</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="11">
         <v>480</v>
       </c>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="24">
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="9">
         <f t="shared" si="0"/>
         <v>1225</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="10">
         <v>1000</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="4">
         <v>380</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11">
         <v>30</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26">
+      <c r="F24" s="11"/>
+      <c r="G24" s="11">
         <v>100</v>
       </c>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26">
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11">
         <v>195</v>
       </c>
-      <c r="K24" s="26">
+      <c r="K24" s="11">
         <v>480</v>
       </c>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="28">
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="13">
         <v>20</v>
       </c>
-      <c r="O24" s="26"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="24">
+      <c r="O24" s="11"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="9">
         <f t="shared" si="0"/>
         <v>2205</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="10">
         <v>1000</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26">
+      <c r="C25" s="4"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11">
         <v>200</v>
       </c>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26">
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11">
         <v>180</v>
       </c>
-      <c r="K25" s="26">
+      <c r="K25" s="11">
         <v>400</v>
       </c>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="28">
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="13">
         <v>30</v>
       </c>
-      <c r="O25" s="26"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="24">
+      <c r="O25" s="11"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="9">
         <f t="shared" si="0"/>
         <v>1810</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26">
+      <c r="B26" s="10"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11">
         <v>210</v>
       </c>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26">
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11">
         <v>170</v>
       </c>
-      <c r="K26" s="26">
+      <c r="K26" s="11">
         <v>480</v>
       </c>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="28">
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="13">
         <v>20</v>
       </c>
-      <c r="O26" s="26"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="24">
+      <c r="O26" s="11"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="9">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="10">
         <v>1450</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="4">
         <v>400</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26">
+      <c r="D27" s="11"/>
+      <c r="E27" s="11">
         <v>300</v>
       </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26">
+      <c r="F27" s="11"/>
+      <c r="G27" s="11">
         <v>180</v>
       </c>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26">
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11">
         <v>140</v>
       </c>
-      <c r="K27" s="26">
+      <c r="K27" s="11">
         <v>480</v>
       </c>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="28">
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="13">
         <v>20</v>
       </c>
-      <c r="O27" s="26"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="24">
+      <c r="O27" s="11"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="9">
         <f t="shared" si="0"/>
         <v>2970</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="10">
         <v>1000</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26">
+      <c r="C28" s="4"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11">
         <v>100</v>
       </c>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26">
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11">
         <v>30</v>
       </c>
-      <c r="K28" s="26">
+      <c r="K28" s="11">
         <v>480</v>
       </c>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="28">
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="13">
         <v>50</v>
       </c>
-      <c r="O28" s="26"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="24">
+      <c r="O28" s="11"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="9">
         <f t="shared" si="0"/>
         <v>1660</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="10">
         <v>300</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26">
+      <c r="C29" s="4"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11">
         <v>270</v>
       </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26">
+      <c r="F29" s="11"/>
+      <c r="G29" s="11">
         <v>210</v>
       </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26">
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11">
         <v>200</v>
       </c>
-      <c r="K29" s="26">
+      <c r="K29" s="11">
         <v>480</v>
       </c>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="24">
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="9">
         <f t="shared" si="0"/>
         <v>1460</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="10">
         <v>1000</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26">
+      <c r="C30" s="4"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11">
         <v>110</v>
       </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26">
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11">
         <v>160</v>
       </c>
-      <c r="K30" s="26">
+      <c r="K30" s="11">
         <v>480</v>
       </c>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="28">
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="13">
         <v>20</v>
       </c>
-      <c r="O30" s="26"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="24">
+      <c r="O30" s="11"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="9">
         <f t="shared" si="0"/>
         <v>1770</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="10">
         <v>500</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26">
+      <c r="C31" s="4"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11">
         <v>270</v>
       </c>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26">
+      <c r="F31" s="11"/>
+      <c r="G31" s="11">
         <v>130</v>
       </c>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="33">
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="18">
         <v>160</v>
       </c>
-      <c r="K31" s="26">
+      <c r="K31" s="11">
         <v>480</v>
       </c>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="28">
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="13">
         <v>20</v>
       </c>
-      <c r="O31" s="26"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="24">
+      <c r="O31" s="11"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="9">
         <f t="shared" si="0"/>
         <v>1560</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="10">
         <v>800</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26">
+      <c r="C32" s="4"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11">
         <v>3650</v>
       </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26">
+      <c r="F32" s="11"/>
+      <c r="G32" s="11">
         <v>400</v>
       </c>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26">
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11">
         <v>210</v>
       </c>
-      <c r="K32" s="26">
+      <c r="K32" s="11">
         <v>480</v>
       </c>
-      <c r="L32" s="26">
+      <c r="L32" s="11">
         <v>799</v>
       </c>
-      <c r="M32" s="26"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="26">
+      <c r="M32" s="11"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="11">
         <v>10000</v>
       </c>
-      <c r="P32" s="29">
+      <c r="P32" s="14">
         <v>2160</v>
       </c>
-      <c r="Q32" s="24">
+      <c r="Q32" s="9">
         <f t="shared" si="0"/>
         <v>18499</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="24">
+      <c r="A33" s="3"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="24">
+      <c r="A34" s="3"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="24">
+      <c r="A35" s="3"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="24">
+      <c r="A36" s="3"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="40">
+      <c r="B37" s="25">
         <f>SUM(B6:B36)</f>
         <v>20350</v>
       </c>
-      <c r="C37" s="41">
+      <c r="C37" s="26">
         <f t="shared" ref="C37:P37" si="1">SUM(C6:C36)</f>
         <v>2380</v>
       </c>
-      <c r="D37" s="41">
+      <c r="D37" s="26">
         <f t="shared" si="1"/>
         <v>530</v>
       </c>
-      <c r="E37" s="41">
+      <c r="E37" s="26">
         <f t="shared" si="1"/>
         <v>5090</v>
       </c>
-      <c r="F37" s="41">
+      <c r="F37" s="26">
         <f t="shared" si="1"/>
         <v>385</v>
       </c>
-      <c r="G37" s="41">
+      <c r="G37" s="26">
         <f>SUM(G6:G36)</f>
         <v>5990</v>
       </c>
-      <c r="H37" s="41">
+      <c r="H37" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I37" s="41">
+      <c r="I37" s="26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J37" s="41">
+      <c r="J37" s="26">
         <f t="shared" si="1"/>
         <v>3370</v>
       </c>
-      <c r="K37" s="41">
+      <c r="K37" s="26">
         <f t="shared" si="1"/>
         <v>12140</v>
       </c>
-      <c r="L37" s="41">
+      <c r="L37" s="26">
         <f t="shared" si="1"/>
         <v>1598</v>
       </c>
-      <c r="M37" s="41">
+      <c r="M37" s="26">
         <f t="shared" si="1"/>
         <v>752</v>
       </c>
-      <c r="N37" s="42">
+      <c r="N37" s="27">
         <f t="shared" si="1"/>
         <v>390</v>
       </c>
-      <c r="O37" s="41">
+      <c r="O37" s="26">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="P37" s="43">
+      <c r="P37" s="28">
         <f t="shared" si="1"/>
         <v>2260</v>
       </c>
-      <c r="Q37" s="44">
+      <c r="Q37" s="29">
         <f>SUM(Q6:Q36)</f>
         <v>65235</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -2489,6 +2480,15 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
